--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_14_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_14_41.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77142.56459546863</v>
+        <v>5151068.340509084</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77142.56459546863</v>
+        <v>5151068.340509084</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1112563699.670886</v>
+        <v>41692761.37270261</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12269.55779551496</v>
+        <v>1051942.405959457</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23175.94757262894</v>
+        <v>1866056.216098679</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>34070.01571701904</v>
+        <v>2680170.026237901</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>45198.30615657705</v>
+        <v>3493467.864942207</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>56326.53506055044</v>
+        <v>4306765.703646513</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>67454.82550010846</v>
+        <v>5120063.542350817</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>78583.10231210594</v>
+        <v>5933361.38105512</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>89711.33121607936</v>
+        <v>6746659.219759421</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>100839.6216556374</v>
+        <v>7559957.058463722</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>111967.9120951898</v>
+        <v>8373254.897168032</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>123096.2025347479</v>
+        <v>9186552.735872334</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>134224.4929743059</v>
+        <v>9999850.574576639</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>145352.7834138639</v>
+        <v>10813148.41328095</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>156481.0738534219</v>
+        <v>11626446.25198526</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>167609.3642929801</v>
+        <v>12439744.09068958</v>
       </c>
     </row>
   </sheetData>
